--- a/example_data/EPA/label_corrected/000100-01324-20171109_2018-12-07_184628.xlsx
+++ b/example_data/EPA/label_corrected/000100-01324-20171109_2018-12-07_184628.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PPE || Application Instructions</t>
+          <t>ppe || application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions || Safety Procedures</t>
+          <t>safety procedures || application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions || Safety Procedures</t>
+          <t>safety procedures || irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation || chemigation</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -15539,7 +15539,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G556" t="inlineStr"/>
